--- a/software/inputs/exclude_list.xlsx
+++ b/software/inputs/exclude_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365E09ED-FA02-0842-AF5D-A07E49903ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0AE6CD37-C310-A14A-B4E4-0722D4B50748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,48 +22,304 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>Argentina</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>DATE OF ORDER</t>
+  </si>
+  <si>
+    <t>Time Of Order</t>
+  </si>
+  <si>
+    <t>COUNTRY OF MANUFACTURE</t>
+  </si>
+  <si>
+    <t>Factory Address</t>
+  </si>
+  <si>
+    <t>TOKEN TYPE</t>
+  </si>
+  <si>
+    <t>Order Destination</t>
+  </si>
+  <si>
+    <t>Host Currency</t>
+  </si>
+  <si>
+    <t>CUSTOMER ADDRESS</t>
+  </si>
+  <si>
+    <t>Barcode Country Code</t>
+  </si>
+  <si>
+    <t>Barcode Region Code</t>
+  </si>
+  <si>
+    <t>Barcode Unit Code</t>
+  </si>
+  <si>
+    <t>Bigmix</t>
+  </si>
+  <si>
+    <t>NegNos</t>
+  </si>
+  <si>
+    <t>input rprt example</t>
+  </si>
+  <si>
+    <t>TRADE START TIME (Scheduled)</t>
+  </si>
+  <si>
+    <t>Operational Hours</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Modifier 1</t>
+  </si>
+  <si>
+    <t>Fractional Modifier 2</t>
+  </si>
+  <si>
+    <t>Only Negs</t>
+  </si>
+  <si>
+    <t>Modifer 3</t>
+  </si>
+  <si>
+    <t>Fractional Modifier 1</t>
+  </si>
+  <si>
+    <t>Server:</t>
+  </si>
+  <si>
+    <t>Sum Modifer</t>
+  </si>
+  <si>
+    <t>Live?</t>
+  </si>
+  <si>
+    <t>OVERDUE:</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>SALE PRICE</t>
+  </si>
+  <si>
+    <t>Breaks:</t>
+  </si>
+  <si>
+    <t>Number Sold</t>
+  </si>
+  <si>
+    <t>System Created Timestamp</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Barcode Manuf Lot</t>
+  </si>
+  <si>
+    <t>Barcode ID</t>
+  </si>
+  <si>
+    <t>Barcode Commencment</t>
+  </si>
+  <si>
+    <t>Attributions</t>
+  </si>
+  <si>
+    <t>Rated</t>
+  </si>
+  <si>
+    <t>2014 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>2015 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>2016 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>2017 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>2018 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>2019 EQUIV DIFF</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CORRECT AS OF:</t>
+  </si>
+  <si>
+    <t>ZETA</t>
+  </si>
+  <si>
+    <t>F234#$E</t>
+  </si>
+  <si>
+    <t>RETAIL/WHOLESALE DIFF</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Modifier 5</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Barte</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>ÂŘĞÊĥŢĪňĂ</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>NAZ</t>
+  </si>
+  <si>
+    <t>NaX</t>
+  </si>
+  <si>
+    <t>2:59:33 PM</t>
+  </si>
+  <si>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>2/45</t>
+  </si>
+  <si>
+    <t>11/20</t>
+  </si>
+  <si>
+    <t>Patrick Wilson</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>-53445</t>
+  </si>
+  <si>
+    <t>NAX</t>
+  </si>
+  <si>
+    <t>Captured</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>IMPOSSIBLE</t>
+  </si>
+  <si>
+    <t>10/28/1998</t>
+  </si>
+  <si>
+    <t>302 Bay Rd, Cheltenham VIC 3192 AUSTRALIA</t>
+  </si>
+  <si>
+    <t>5:45</t>
+  </si>
+  <si>
+    <t>-+/%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="[$-C09]d/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="[$-C09]h:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,39 +327,73 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,44 +416,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -213,9 +503,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -271,190 +561,2595 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4DC2B-E100-7F47-8E3E-775193F7A746}">
-  <dimension ref="A2:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AML9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.74609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.37890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.93359375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="69.38671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5859375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.80078125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.47265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.91796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.8046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.91796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.07421875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.8046875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.78515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.34765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.50390625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.8046875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.9296875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.3671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.3359375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.01171875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7421875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.78515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="7.72265625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.27734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.96484375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.2578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.66015625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9.0703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="7.84375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="16.91796875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.4375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.71484375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9.55859375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6.86328125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="15.93359375" style="1" customWidth="1"/>
+    <col min="46" max="48" width="17.40625" style="1" customWidth="1"/>
+    <col min="49" max="50" width="18.140625" style="1" customWidth="1"/>
+    <col min="51" max="54" width="28.07421875" style="1" customWidth="1"/>
+    <col min="55" max="1024" width="8.3359375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:1026" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8">
+        <v>16</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-654.44000000000005</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>-4567</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>5.6179775279999999</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>6.2292308390000004</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>6.9293668009999996</v>
-      </c>
+      <c r="U2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="8">
+        <v>1.8049381235999999</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>8846.7128548164001</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>2.2088E-2</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>357</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>8.9779004983800004</v>
+      </c>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15">
+        <v>7.8345672587999999</v>
+      </c>
+      <c r="AX2" s="15">
+        <v>1.9851850224000001</v>
+      </c>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="9"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="9"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
+      <c r="CE2" s="9"/>
+      <c r="CF2" s="9"/>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="9"/>
+      <c r="CI2" s="9"/>
+      <c r="CJ2" s="9"/>
+      <c r="CK2" s="9"/>
+      <c r="CL2" s="9"/>
+      <c r="CM2" s="9"/>
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="9"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="9"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="9"/>
+      <c r="CT2" s="9"/>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9"/>
+      <c r="CW2" s="9"/>
+      <c r="CX2" s="9"/>
+      <c r="CY2" s="9"/>
+      <c r="CZ2" s="9"/>
+      <c r="DA2" s="9"/>
+      <c r="DB2" s="9"/>
+      <c r="DC2" s="9"/>
+      <c r="DD2" s="9"/>
+      <c r="DE2" s="9"/>
+      <c r="DF2" s="9"/>
+      <c r="DG2" s="9"/>
+      <c r="DH2" s="9"/>
+      <c r="DI2" s="9"/>
+      <c r="DJ2" s="9"/>
+      <c r="DK2" s="9"/>
+      <c r="DL2" s="9"/>
+      <c r="DM2" s="9"/>
+      <c r="DN2" s="9"/>
+      <c r="DO2" s="9"/>
+      <c r="DP2" s="9"/>
+      <c r="DQ2" s="9"/>
+      <c r="DR2" s="9"/>
+      <c r="DS2" s="9"/>
+      <c r="DT2" s="9"/>
+      <c r="DU2" s="9"/>
+      <c r="DV2" s="9"/>
+      <c r="DW2" s="9"/>
+      <c r="DX2" s="9"/>
+      <c r="DY2" s="9"/>
+      <c r="DZ2" s="9"/>
+      <c r="EA2" s="9"/>
+      <c r="EB2" s="9"/>
+      <c r="EC2" s="9"/>
+      <c r="ED2" s="9"/>
+      <c r="EE2" s="9"/>
+      <c r="EF2" s="9"/>
+      <c r="EG2" s="9"/>
+      <c r="EH2" s="9"/>
+      <c r="EI2" s="9"/>
+      <c r="EJ2" s="9"/>
+      <c r="EK2" s="9"/>
+      <c r="EL2" s="9"/>
+      <c r="EM2" s="9"/>
+      <c r="EN2" s="9"/>
+      <c r="EO2" s="9"/>
+      <c r="EP2" s="9"/>
+      <c r="EQ2" s="9"/>
+      <c r="ER2" s="9"/>
+      <c r="ES2" s="9"/>
+      <c r="ET2" s="9"/>
+      <c r="EU2" s="9"/>
+      <c r="EV2" s="9"/>
+      <c r="EW2" s="9"/>
+      <c r="EX2" s="9"/>
+      <c r="EY2" s="9"/>
+      <c r="EZ2" s="9"/>
+      <c r="FA2" s="9"/>
+      <c r="FB2" s="9"/>
+      <c r="FC2" s="9"/>
+      <c r="FD2" s="9"/>
+      <c r="FE2" s="9"/>
+      <c r="FF2" s="9"/>
+      <c r="FG2" s="9"/>
+      <c r="FH2" s="9"/>
+      <c r="FI2" s="9"/>
+      <c r="FJ2" s="9"/>
+      <c r="FK2" s="9"/>
+      <c r="FL2" s="9"/>
+      <c r="FM2" s="9"/>
+      <c r="FN2" s="9"/>
+      <c r="FO2" s="9"/>
+      <c r="FP2" s="9"/>
+      <c r="FQ2" s="9"/>
+      <c r="FR2" s="9"/>
+      <c r="FS2" s="9"/>
+      <c r="FT2" s="9"/>
+      <c r="FU2" s="9"/>
+      <c r="FV2" s="9"/>
+      <c r="FW2" s="9"/>
+      <c r="FX2" s="9"/>
+      <c r="FY2" s="9"/>
+      <c r="FZ2" s="9"/>
+      <c r="GA2" s="9"/>
+      <c r="GB2" s="9"/>
+      <c r="GC2" s="9"/>
+      <c r="GD2" s="9"/>
+      <c r="GE2" s="9"/>
+      <c r="GF2" s="9"/>
+      <c r="GG2" s="9"/>
+      <c r="GH2" s="9"/>
+      <c r="GI2" s="9"/>
+      <c r="GJ2" s="9"/>
+      <c r="GK2" s="9"/>
+      <c r="GL2" s="9"/>
+      <c r="GM2" s="9"/>
+      <c r="GN2" s="9"/>
+      <c r="GO2" s="9"/>
+      <c r="GP2" s="9"/>
+      <c r="GQ2" s="9"/>
+      <c r="GR2" s="9"/>
+      <c r="GS2" s="9"/>
+      <c r="GT2" s="9"/>
+      <c r="GU2" s="9"/>
+      <c r="GV2" s="9"/>
+      <c r="GW2" s="9"/>
+      <c r="GX2" s="9"/>
+      <c r="GY2" s="9"/>
+      <c r="GZ2" s="9"/>
+      <c r="HA2" s="9"/>
+      <c r="HB2" s="9"/>
+      <c r="HC2" s="9"/>
+      <c r="HD2" s="9"/>
+      <c r="HE2" s="9"/>
+      <c r="HF2" s="9"/>
+      <c r="HG2" s="9"/>
+      <c r="HH2" s="9"/>
+      <c r="HI2" s="9"/>
+      <c r="HJ2" s="9"/>
+      <c r="HK2" s="9"/>
+      <c r="HL2" s="9"/>
+      <c r="HM2" s="9"/>
+      <c r="HN2" s="9"/>
+      <c r="HO2" s="9"/>
+      <c r="HP2" s="9"/>
+      <c r="HQ2" s="9"/>
+      <c r="HR2" s="9"/>
+      <c r="HS2" s="9"/>
+      <c r="HT2" s="9"/>
+      <c r="HU2" s="9"/>
+      <c r="HV2" s="9"/>
+      <c r="HW2" s="9"/>
+      <c r="HX2" s="9"/>
+      <c r="HY2" s="9"/>
+      <c r="HZ2" s="9"/>
+      <c r="IA2" s="9"/>
+      <c r="IB2" s="9"/>
+      <c r="IC2" s="9"/>
+      <c r="ID2" s="9"/>
+      <c r="IE2" s="9"/>
+      <c r="IF2" s="9"/>
+      <c r="IG2" s="9"/>
+      <c r="IH2" s="9"/>
+      <c r="II2" s="9"/>
+      <c r="IJ2" s="9"/>
+      <c r="IK2" s="9"/>
+      <c r="IL2" s="9"/>
+      <c r="IM2" s="9"/>
+      <c r="IN2" s="9"/>
+      <c r="IO2" s="9"/>
+      <c r="IP2" s="9"/>
+      <c r="IQ2" s="9"/>
+      <c r="IR2" s="9"/>
+      <c r="IS2" s="9"/>
+      <c r="IT2" s="9"/>
+      <c r="IU2" s="9"/>
+      <c r="IV2" s="9"/>
+      <c r="IW2" s="9"/>
+      <c r="IX2" s="9"/>
+      <c r="IY2" s="9"/>
+      <c r="IZ2" s="9"/>
+      <c r="JA2" s="9"/>
+      <c r="JB2" s="9"/>
+      <c r="JC2" s="9"/>
+      <c r="JD2" s="9"/>
+      <c r="JE2" s="9"/>
+      <c r="JF2" s="9"/>
+      <c r="JG2" s="9"/>
+      <c r="JH2" s="9"/>
+      <c r="JI2" s="9"/>
+      <c r="JJ2" s="9"/>
+      <c r="JK2" s="9"/>
+      <c r="JL2" s="9"/>
+      <c r="JM2" s="9"/>
+      <c r="JN2" s="9"/>
+      <c r="JO2" s="9"/>
+      <c r="JP2" s="9"/>
+      <c r="JQ2" s="9"/>
+      <c r="JR2" s="9"/>
+      <c r="JS2" s="9"/>
+      <c r="JT2" s="9"/>
+      <c r="JU2" s="9"/>
+      <c r="JV2" s="9"/>
+      <c r="JW2" s="9"/>
+      <c r="JX2" s="9"/>
+      <c r="JY2" s="9"/>
+      <c r="JZ2" s="9"/>
+      <c r="KA2" s="9"/>
+      <c r="KB2" s="9"/>
+      <c r="KC2" s="9"/>
+      <c r="KD2" s="9"/>
+      <c r="KE2" s="9"/>
+      <c r="KF2" s="9"/>
+      <c r="KG2" s="9"/>
+      <c r="KH2" s="9"/>
+      <c r="KI2" s="9"/>
+      <c r="KJ2" s="9"/>
+      <c r="KK2" s="9"/>
+      <c r="KL2" s="9"/>
+      <c r="KM2" s="9"/>
+      <c r="KN2" s="9"/>
+      <c r="KO2" s="9"/>
+      <c r="KP2" s="9"/>
+      <c r="KQ2" s="9"/>
+      <c r="KR2" s="9"/>
+      <c r="KS2" s="9"/>
+      <c r="KT2" s="9"/>
+      <c r="KU2" s="9"/>
+      <c r="KV2" s="9"/>
+      <c r="KW2" s="9"/>
+      <c r="KX2" s="9"/>
+      <c r="KY2" s="9"/>
+      <c r="KZ2" s="9"/>
+      <c r="LA2" s="9"/>
+      <c r="LB2" s="9"/>
+      <c r="LC2" s="9"/>
+      <c r="LD2" s="9"/>
+      <c r="LE2" s="9"/>
+      <c r="LF2" s="9"/>
+      <c r="LG2" s="9"/>
+      <c r="LH2" s="9"/>
+      <c r="LI2" s="9"/>
+      <c r="LJ2" s="9"/>
+      <c r="LK2" s="9"/>
+      <c r="LL2" s="9"/>
+      <c r="LM2" s="9"/>
+      <c r="LN2" s="9"/>
+      <c r="LO2" s="9"/>
+      <c r="LP2" s="9"/>
+      <c r="LQ2" s="9"/>
+      <c r="LR2" s="9"/>
+      <c r="LS2" s="9"/>
+      <c r="LT2" s="9"/>
+      <c r="LU2" s="9"/>
+      <c r="LV2" s="9"/>
+      <c r="LW2" s="9"/>
+      <c r="LX2" s="9"/>
+      <c r="LY2" s="9"/>
+      <c r="LZ2" s="9"/>
+      <c r="MA2" s="9"/>
+      <c r="MB2" s="9"/>
+      <c r="MC2" s="9"/>
+      <c r="MD2" s="9"/>
+      <c r="ME2" s="9"/>
+      <c r="MF2" s="9"/>
+      <c r="MG2" s="9"/>
+      <c r="MH2" s="9"/>
+      <c r="MI2" s="9"/>
+      <c r="MJ2" s="9"/>
+      <c r="MK2" s="9"/>
+      <c r="ML2" s="9"/>
+      <c r="MM2" s="9"/>
+      <c r="MN2" s="9"/>
+      <c r="MO2" s="9"/>
+      <c r="MP2" s="9"/>
+      <c r="MQ2" s="9"/>
+      <c r="MR2" s="9"/>
+      <c r="MS2" s="9"/>
+      <c r="MT2" s="9"/>
+      <c r="MU2" s="9"/>
+      <c r="MV2" s="9"/>
+      <c r="MW2" s="9"/>
+      <c r="MX2" s="9"/>
+      <c r="MY2" s="9"/>
+      <c r="MZ2" s="9"/>
+      <c r="NA2" s="9"/>
+      <c r="NB2" s="9"/>
+      <c r="NC2" s="9"/>
+      <c r="ND2" s="9"/>
+      <c r="NE2" s="9"/>
+      <c r="NF2" s="9"/>
+      <c r="NG2" s="9"/>
+      <c r="NH2" s="9"/>
+      <c r="NI2" s="9"/>
+      <c r="NJ2" s="9"/>
+      <c r="NK2" s="9"/>
+      <c r="NL2" s="9"/>
+      <c r="NM2" s="9"/>
+      <c r="NN2" s="9"/>
+      <c r="NO2" s="9"/>
+      <c r="NP2" s="9"/>
+      <c r="NQ2" s="9"/>
+      <c r="NR2" s="9"/>
+      <c r="NS2" s="9"/>
+      <c r="NT2" s="9"/>
+      <c r="NU2" s="9"/>
+      <c r="NV2" s="9"/>
+      <c r="NW2" s="9"/>
+      <c r="NX2" s="9"/>
+      <c r="NY2" s="9"/>
+      <c r="NZ2" s="9"/>
+      <c r="OA2" s="9"/>
+      <c r="OB2" s="9"/>
+      <c r="OC2" s="9"/>
+      <c r="OD2" s="9"/>
+      <c r="OE2" s="9"/>
+      <c r="OF2" s="9"/>
+      <c r="OG2" s="9"/>
+      <c r="OH2" s="9"/>
+      <c r="OI2" s="9"/>
+      <c r="OJ2" s="9"/>
+      <c r="OK2" s="9"/>
+      <c r="OL2" s="9"/>
+      <c r="OM2" s="9"/>
+      <c r="ON2" s="9"/>
+      <c r="OO2" s="9"/>
+      <c r="OP2" s="9"/>
+      <c r="OQ2" s="9"/>
+      <c r="OR2" s="9"/>
+      <c r="OS2" s="9"/>
+      <c r="OT2" s="9"/>
+      <c r="OU2" s="9"/>
+      <c r="OV2" s="9"/>
+      <c r="OW2" s="9"/>
+      <c r="OX2" s="9"/>
+      <c r="OY2" s="9"/>
+      <c r="OZ2" s="9"/>
+      <c r="PA2" s="9"/>
+      <c r="PB2" s="9"/>
+      <c r="PC2" s="9"/>
+      <c r="PD2" s="9"/>
+      <c r="PE2" s="9"/>
+      <c r="PF2" s="9"/>
+      <c r="PG2" s="9"/>
+      <c r="PH2" s="9"/>
+      <c r="PI2" s="9"/>
+      <c r="PJ2" s="9"/>
+      <c r="PK2" s="9"/>
+      <c r="PL2" s="9"/>
+      <c r="PM2" s="9"/>
+      <c r="PN2" s="9"/>
+      <c r="PO2" s="9"/>
+      <c r="PP2" s="9"/>
+      <c r="PQ2" s="9"/>
+      <c r="PR2" s="9"/>
+      <c r="PS2" s="9"/>
+      <c r="PT2" s="9"/>
+      <c r="PU2" s="9"/>
+      <c r="PV2" s="9"/>
+      <c r="PW2" s="9"/>
+      <c r="PX2" s="9"/>
+      <c r="PY2" s="9"/>
+      <c r="PZ2" s="9"/>
+      <c r="QA2" s="9"/>
+      <c r="QB2" s="9"/>
+      <c r="QC2" s="9"/>
+      <c r="QD2" s="9"/>
+      <c r="QE2" s="9"/>
+      <c r="QF2" s="9"/>
+      <c r="QG2" s="9"/>
+      <c r="QH2" s="9"/>
+      <c r="QI2" s="9"/>
+      <c r="QJ2" s="9"/>
+      <c r="QK2" s="9"/>
+      <c r="QL2" s="9"/>
+      <c r="QM2" s="9"/>
+      <c r="QN2" s="9"/>
+      <c r="QO2" s="9"/>
+      <c r="QP2" s="9"/>
+      <c r="QQ2" s="9"/>
+      <c r="QR2" s="9"/>
+      <c r="QS2" s="9"/>
+      <c r="QT2" s="9"/>
+      <c r="QU2" s="9"/>
+      <c r="QV2" s="9"/>
+      <c r="QW2" s="9"/>
+      <c r="QX2" s="9"/>
+      <c r="QY2" s="9"/>
+      <c r="QZ2" s="9"/>
+      <c r="RA2" s="9"/>
+      <c r="RB2" s="9"/>
+      <c r="RC2" s="9"/>
+      <c r="RD2" s="9"/>
+      <c r="RE2" s="9"/>
+      <c r="RF2" s="9"/>
+      <c r="RG2" s="9"/>
+      <c r="RH2" s="9"/>
+      <c r="RI2" s="9"/>
+      <c r="RJ2" s="9"/>
+      <c r="RK2" s="9"/>
+      <c r="RL2" s="9"/>
+      <c r="RM2" s="9"/>
+      <c r="RN2" s="9"/>
+      <c r="RO2" s="9"/>
+      <c r="RP2" s="9"/>
+      <c r="RQ2" s="9"/>
+      <c r="RR2" s="9"/>
+      <c r="RS2" s="9"/>
+      <c r="RT2" s="9"/>
+      <c r="RU2" s="9"/>
+      <c r="RV2" s="9"/>
+      <c r="RW2" s="9"/>
+      <c r="RX2" s="9"/>
+      <c r="RY2" s="9"/>
+      <c r="RZ2" s="9"/>
+      <c r="SA2" s="9"/>
+      <c r="SB2" s="9"/>
+      <c r="SC2" s="9"/>
+      <c r="SD2" s="9"/>
+      <c r="SE2" s="9"/>
+      <c r="SF2" s="9"/>
+      <c r="SG2" s="9"/>
+      <c r="SH2" s="9"/>
+      <c r="SI2" s="9"/>
+      <c r="SJ2" s="9"/>
+      <c r="SK2" s="9"/>
+      <c r="SL2" s="9"/>
+      <c r="SM2" s="9"/>
+      <c r="SN2" s="9"/>
+      <c r="SO2" s="9"/>
+      <c r="SP2" s="9"/>
+      <c r="SQ2" s="9"/>
+      <c r="SR2" s="9"/>
+      <c r="SS2" s="9"/>
+      <c r="ST2" s="9"/>
+      <c r="SU2" s="9"/>
+      <c r="SV2" s="9"/>
+      <c r="SW2" s="9"/>
+      <c r="SX2" s="9"/>
+      <c r="SY2" s="9"/>
+      <c r="SZ2" s="9"/>
+      <c r="TA2" s="9"/>
+      <c r="TB2" s="9"/>
+      <c r="TC2" s="9"/>
+      <c r="TD2" s="9"/>
+      <c r="TE2" s="9"/>
+      <c r="TF2" s="9"/>
+      <c r="TG2" s="9"/>
+      <c r="TH2" s="9"/>
+      <c r="TI2" s="9"/>
+      <c r="TJ2" s="9"/>
+      <c r="TK2" s="9"/>
+      <c r="TL2" s="9"/>
+      <c r="TM2" s="9"/>
+      <c r="TN2" s="9"/>
+      <c r="TO2" s="9"/>
+      <c r="TP2" s="9"/>
+      <c r="TQ2" s="9"/>
+      <c r="TR2" s="9"/>
+      <c r="TS2" s="9"/>
+      <c r="TT2" s="9"/>
+      <c r="TU2" s="9"/>
+      <c r="TV2" s="9"/>
+      <c r="TW2" s="9"/>
+      <c r="TX2" s="9"/>
+      <c r="TY2" s="9"/>
+      <c r="TZ2" s="9"/>
+      <c r="UA2" s="9"/>
+      <c r="UB2" s="9"/>
+      <c r="UC2" s="9"/>
+      <c r="UD2" s="9"/>
+      <c r="UE2" s="9"/>
+      <c r="UF2" s="9"/>
+      <c r="UG2" s="9"/>
+      <c r="UH2" s="9"/>
+      <c r="UI2" s="9"/>
+      <c r="UJ2" s="9"/>
+      <c r="UK2" s="9"/>
+      <c r="UL2" s="9"/>
+      <c r="UM2" s="9"/>
+      <c r="UN2" s="9"/>
+      <c r="UO2" s="9"/>
+      <c r="UP2" s="9"/>
+      <c r="UQ2" s="9"/>
+      <c r="UR2" s="9"/>
+      <c r="US2" s="9"/>
+      <c r="UT2" s="9"/>
+      <c r="UU2" s="9"/>
+      <c r="UV2" s="9"/>
+      <c r="UW2" s="9"/>
+      <c r="UX2" s="9"/>
+      <c r="UY2" s="9"/>
+      <c r="UZ2" s="9"/>
+      <c r="VA2" s="9"/>
+      <c r="VB2" s="9"/>
+      <c r="VC2" s="9"/>
+      <c r="VD2" s="9"/>
+      <c r="VE2" s="9"/>
+      <c r="VF2" s="9"/>
+      <c r="VG2" s="9"/>
+      <c r="VH2" s="9"/>
+      <c r="VI2" s="9"/>
+      <c r="VJ2" s="9"/>
+      <c r="VK2" s="9"/>
+      <c r="VL2" s="9"/>
+      <c r="VM2" s="9"/>
+      <c r="VN2" s="9"/>
+      <c r="VO2" s="9"/>
+      <c r="VP2" s="9"/>
+      <c r="VQ2" s="9"/>
+      <c r="VR2" s="9"/>
+      <c r="VS2" s="9"/>
+      <c r="VT2" s="9"/>
+      <c r="VU2" s="9"/>
+      <c r="VV2" s="9"/>
+      <c r="VW2" s="9"/>
+      <c r="VX2" s="9"/>
+      <c r="VY2" s="9"/>
+      <c r="VZ2" s="9"/>
+      <c r="WA2" s="9"/>
+      <c r="WB2" s="9"/>
+      <c r="WC2" s="9"/>
+      <c r="WD2" s="9"/>
+      <c r="WE2" s="9"/>
+      <c r="WF2" s="9"/>
+      <c r="WG2" s="9"/>
+      <c r="WH2" s="9"/>
+      <c r="WI2" s="9"/>
+      <c r="WJ2" s="9"/>
+      <c r="WK2" s="9"/>
+      <c r="WL2" s="9"/>
+      <c r="WM2" s="9"/>
+      <c r="WN2" s="9"/>
+      <c r="WO2" s="9"/>
+      <c r="WP2" s="9"/>
+      <c r="WQ2" s="9"/>
+      <c r="WR2" s="9"/>
+      <c r="WS2" s="9"/>
+      <c r="WT2" s="9"/>
+      <c r="WU2" s="9"/>
+      <c r="WV2" s="9"/>
+      <c r="WW2" s="9"/>
+      <c r="WX2" s="9"/>
+      <c r="WY2" s="9"/>
+      <c r="WZ2" s="9"/>
+      <c r="XA2" s="9"/>
+      <c r="XB2" s="9"/>
+      <c r="XC2" s="9"/>
+      <c r="XD2" s="9"/>
+      <c r="XE2" s="9"/>
+      <c r="XF2" s="9"/>
+      <c r="XG2" s="9"/>
+      <c r="XH2" s="9"/>
+      <c r="XI2" s="9"/>
+      <c r="XJ2" s="9"/>
+      <c r="XK2" s="9"/>
+      <c r="XL2" s="9"/>
+      <c r="XM2" s="9"/>
+      <c r="XN2" s="9"/>
+      <c r="XO2" s="9"/>
+      <c r="XP2" s="9"/>
+      <c r="XQ2" s="9"/>
+      <c r="XR2" s="9"/>
+      <c r="XS2" s="9"/>
+      <c r="XT2" s="9"/>
+      <c r="XU2" s="9"/>
+      <c r="XV2" s="9"/>
+      <c r="XW2" s="9"/>
+      <c r="XX2" s="9"/>
+      <c r="XY2" s="9"/>
+      <c r="XZ2" s="9"/>
+      <c r="YA2" s="9"/>
+      <c r="YB2" s="9"/>
+      <c r="YC2" s="9"/>
+      <c r="YD2" s="9"/>
+      <c r="YE2" s="9"/>
+      <c r="YF2" s="9"/>
+      <c r="YG2" s="9"/>
+      <c r="YH2" s="9"/>
+      <c r="YI2" s="9"/>
+      <c r="YJ2" s="9"/>
+      <c r="YK2" s="9"/>
+      <c r="YL2" s="9"/>
+      <c r="YM2" s="9"/>
+      <c r="YN2" s="9"/>
+      <c r="YO2" s="9"/>
+      <c r="YP2" s="9"/>
+      <c r="YQ2" s="9"/>
+      <c r="YR2" s="9"/>
+      <c r="YS2" s="9"/>
+      <c r="YT2" s="9"/>
+      <c r="YU2" s="9"/>
+      <c r="YV2" s="9"/>
+      <c r="YW2" s="9"/>
+      <c r="YX2" s="9"/>
+      <c r="YY2" s="9"/>
+      <c r="YZ2" s="9"/>
+      <c r="ZA2" s="9"/>
+      <c r="ZB2" s="9"/>
+      <c r="ZC2" s="9"/>
+      <c r="ZD2" s="9"/>
+      <c r="ZE2" s="9"/>
+      <c r="ZF2" s="9"/>
+      <c r="ZG2" s="9"/>
+      <c r="ZH2" s="9"/>
+      <c r="ZI2" s="9"/>
+      <c r="ZJ2" s="9"/>
+      <c r="ZK2" s="9"/>
+      <c r="ZL2" s="9"/>
+      <c r="ZM2" s="9"/>
+      <c r="ZN2" s="9"/>
+      <c r="ZO2" s="9"/>
+      <c r="ZP2" s="9"/>
+      <c r="ZQ2" s="9"/>
+      <c r="ZR2" s="9"/>
+      <c r="ZS2" s="9"/>
+      <c r="ZT2" s="9"/>
+      <c r="ZU2" s="9"/>
+      <c r="ZV2" s="9"/>
+      <c r="ZW2" s="9"/>
+      <c r="ZX2" s="9"/>
+      <c r="ZY2" s="9"/>
+      <c r="ZZ2" s="9"/>
+      <c r="AAA2" s="9"/>
+      <c r="AAB2" s="9"/>
+      <c r="AAC2" s="9"/>
+      <c r="AAD2" s="9"/>
+      <c r="AAE2" s="9"/>
+      <c r="AAF2" s="9"/>
+      <c r="AAG2" s="9"/>
+      <c r="AAH2" s="9"/>
+      <c r="AAI2" s="9"/>
+      <c r="AAJ2" s="9"/>
+      <c r="AAK2" s="9"/>
+      <c r="AAL2" s="9"/>
+      <c r="AAM2" s="9"/>
+      <c r="AAN2" s="9"/>
+      <c r="AAO2" s="9"/>
+      <c r="AAP2" s="9"/>
+      <c r="AAQ2" s="9"/>
+      <c r="AAR2" s="9"/>
+      <c r="AAS2" s="9"/>
+      <c r="AAT2" s="9"/>
+      <c r="AAU2" s="9"/>
+      <c r="AAV2" s="9"/>
+      <c r="AAW2" s="9"/>
+      <c r="AAX2" s="9"/>
+      <c r="AAY2" s="9"/>
+      <c r="AAZ2" s="9"/>
+      <c r="ABA2" s="9"/>
+      <c r="ABB2" s="9"/>
+      <c r="ABC2" s="9"/>
+      <c r="ABD2" s="9"/>
+      <c r="ABE2" s="9"/>
+      <c r="ABF2" s="9"/>
+      <c r="ABG2" s="9"/>
+      <c r="ABH2" s="9"/>
+      <c r="ABI2" s="9"/>
+      <c r="ABJ2" s="9"/>
+      <c r="ABK2" s="9"/>
+      <c r="ABL2" s="9"/>
+      <c r="ABM2" s="9"/>
+      <c r="ABN2" s="9"/>
+      <c r="ABO2" s="9"/>
+      <c r="ABP2" s="9"/>
+      <c r="ABQ2" s="9"/>
+      <c r="ABR2" s="9"/>
+      <c r="ABS2" s="9"/>
+      <c r="ABT2" s="9"/>
+      <c r="ABU2" s="9"/>
+      <c r="ABV2" s="9"/>
+      <c r="ABW2" s="9"/>
+      <c r="ABX2" s="9"/>
+      <c r="ABY2" s="9"/>
+      <c r="ABZ2" s="9"/>
+      <c r="ACA2" s="9"/>
+      <c r="ACB2" s="9"/>
+      <c r="ACC2" s="9"/>
+      <c r="ACD2" s="9"/>
+      <c r="ACE2" s="9"/>
+      <c r="ACF2" s="9"/>
+      <c r="ACG2" s="9"/>
+      <c r="ACH2" s="9"/>
+      <c r="ACI2" s="9"/>
+      <c r="ACJ2" s="9"/>
+      <c r="ACK2" s="9"/>
+      <c r="ACL2" s="9"/>
+      <c r="ACM2" s="9"/>
+      <c r="ACN2" s="9"/>
+      <c r="ACO2" s="9"/>
+      <c r="ACP2" s="9"/>
+      <c r="ACQ2" s="9"/>
+      <c r="ACR2" s="9"/>
+      <c r="ACS2" s="9"/>
+      <c r="ACT2" s="9"/>
+      <c r="ACU2" s="9"/>
+      <c r="ACV2" s="9"/>
+      <c r="ACW2" s="9"/>
+      <c r="ACX2" s="9"/>
+      <c r="ACY2" s="9"/>
+      <c r="ACZ2" s="9"/>
+      <c r="ADA2" s="9"/>
+      <c r="ADB2" s="9"/>
+      <c r="ADC2" s="9"/>
+      <c r="ADD2" s="9"/>
+      <c r="ADE2" s="9"/>
+      <c r="ADF2" s="9"/>
+      <c r="ADG2" s="9"/>
+      <c r="ADH2" s="9"/>
+      <c r="ADI2" s="9"/>
+      <c r="ADJ2" s="9"/>
+      <c r="ADK2" s="9"/>
+      <c r="ADL2" s="9"/>
+      <c r="ADM2" s="9"/>
+      <c r="ADN2" s="9"/>
+      <c r="ADO2" s="9"/>
+      <c r="ADP2" s="9"/>
+      <c r="ADQ2" s="9"/>
+      <c r="ADR2" s="9"/>
+      <c r="ADS2" s="9"/>
+      <c r="ADT2" s="9"/>
+      <c r="ADU2" s="9"/>
+      <c r="ADV2" s="9"/>
+      <c r="ADW2" s="9"/>
+      <c r="ADX2" s="9"/>
+      <c r="ADY2" s="9"/>
+      <c r="ADZ2" s="9"/>
+      <c r="AEA2" s="9"/>
+      <c r="AEB2" s="9"/>
+      <c r="AEC2" s="9"/>
+      <c r="AED2" s="9"/>
+      <c r="AEE2" s="9"/>
+      <c r="AEF2" s="9"/>
+      <c r="AEG2" s="9"/>
+      <c r="AEH2" s="9"/>
+      <c r="AEI2" s="9"/>
+      <c r="AEJ2" s="9"/>
+      <c r="AEK2" s="9"/>
+      <c r="AEL2" s="9"/>
+      <c r="AEM2" s="9"/>
+      <c r="AEN2" s="9"/>
+      <c r="AEO2" s="9"/>
+      <c r="AEP2" s="9"/>
+      <c r="AEQ2" s="9"/>
+      <c r="AER2" s="9"/>
+      <c r="AES2" s="9"/>
+      <c r="AET2" s="9"/>
+      <c r="AEU2" s="9"/>
+      <c r="AEV2" s="9"/>
+      <c r="AEW2" s="9"/>
+      <c r="AEX2" s="9"/>
+      <c r="AEY2" s="9"/>
+      <c r="AEZ2" s="9"/>
+      <c r="AFA2" s="9"/>
+      <c r="AFB2" s="9"/>
+      <c r="AFC2" s="9"/>
+      <c r="AFD2" s="9"/>
+      <c r="AFE2" s="9"/>
+      <c r="AFF2" s="9"/>
+      <c r="AFG2" s="9"/>
+      <c r="AFH2" s="9"/>
+      <c r="AFI2" s="9"/>
+      <c r="AFJ2" s="9"/>
+      <c r="AFK2" s="9"/>
+      <c r="AFL2" s="9"/>
+      <c r="AFM2" s="9"/>
+      <c r="AFN2" s="9"/>
+      <c r="AFO2" s="9"/>
+      <c r="AFP2" s="9"/>
+      <c r="AFQ2" s="9"/>
+      <c r="AFR2" s="9"/>
+      <c r="AFS2" s="9"/>
+      <c r="AFT2" s="9"/>
+      <c r="AFU2" s="9"/>
+      <c r="AFV2" s="9"/>
+      <c r="AFW2" s="9"/>
+      <c r="AFX2" s="9"/>
+      <c r="AFY2" s="9"/>
+      <c r="AFZ2" s="9"/>
+      <c r="AGA2" s="9"/>
+      <c r="AGB2" s="9"/>
+      <c r="AGC2" s="9"/>
+      <c r="AGD2" s="9"/>
+      <c r="AGE2" s="9"/>
+      <c r="AGF2" s="9"/>
+      <c r="AGG2" s="9"/>
+      <c r="AGH2" s="9"/>
+      <c r="AGI2" s="9"/>
+      <c r="AGJ2" s="9"/>
+      <c r="AGK2" s="9"/>
+      <c r="AGL2" s="9"/>
+      <c r="AGM2" s="9"/>
+      <c r="AGN2" s="9"/>
+      <c r="AGO2" s="9"/>
+      <c r="AGP2" s="9"/>
+      <c r="AGQ2" s="9"/>
+      <c r="AGR2" s="9"/>
+      <c r="AGS2" s="9"/>
+      <c r="AGT2" s="9"/>
+      <c r="AGU2" s="9"/>
+      <c r="AGV2" s="9"/>
+      <c r="AGW2" s="9"/>
+      <c r="AGX2" s="9"/>
+      <c r="AGY2" s="9"/>
+      <c r="AGZ2" s="9"/>
+      <c r="AHA2" s="9"/>
+      <c r="AHB2" s="9"/>
+      <c r="AHC2" s="9"/>
+      <c r="AHD2" s="9"/>
+      <c r="AHE2" s="9"/>
+      <c r="AHF2" s="9"/>
+      <c r="AHG2" s="9"/>
+      <c r="AHH2" s="9"/>
+      <c r="AHI2" s="9"/>
+      <c r="AHJ2" s="9"/>
+      <c r="AHK2" s="9"/>
+      <c r="AHL2" s="9"/>
+      <c r="AHM2" s="9"/>
+      <c r="AHN2" s="9"/>
+      <c r="AHO2" s="9"/>
+      <c r="AHP2" s="9"/>
+      <c r="AHQ2" s="9"/>
+      <c r="AHR2" s="9"/>
+      <c r="AHS2" s="9"/>
+      <c r="AHT2" s="9"/>
+      <c r="AHU2" s="9"/>
+      <c r="AHV2" s="9"/>
+      <c r="AHW2" s="9"/>
+      <c r="AHX2" s="9"/>
+      <c r="AHY2" s="9"/>
+      <c r="AHZ2" s="9"/>
+      <c r="AIA2" s="9"/>
+      <c r="AIB2" s="9"/>
+      <c r="AIC2" s="9"/>
+      <c r="AID2" s="9"/>
+      <c r="AIE2" s="9"/>
+      <c r="AIF2" s="9"/>
+      <c r="AIG2" s="9"/>
+      <c r="AIH2" s="9"/>
+      <c r="AII2" s="9"/>
+      <c r="AIJ2" s="9"/>
+      <c r="AIK2" s="9"/>
+      <c r="AIL2" s="9"/>
+      <c r="AIM2" s="9"/>
+      <c r="AIN2" s="9"/>
+      <c r="AIO2" s="9"/>
+      <c r="AIP2" s="9"/>
+      <c r="AIQ2" s="9"/>
+      <c r="AIR2" s="9"/>
+      <c r="AIS2" s="9"/>
+      <c r="AIT2" s="9"/>
+      <c r="AIU2" s="9"/>
+      <c r="AIV2" s="9"/>
+      <c r="AIW2" s="9"/>
+      <c r="AIX2" s="9"/>
+      <c r="AIY2" s="9"/>
+      <c r="AIZ2" s="9"/>
+      <c r="AJA2" s="9"/>
+      <c r="AJB2" s="9"/>
+      <c r="AJC2" s="9"/>
+      <c r="AJD2" s="9"/>
+      <c r="AJE2" s="9"/>
+      <c r="AJF2" s="9"/>
+      <c r="AJG2" s="9"/>
+      <c r="AJH2" s="9"/>
+      <c r="AJI2" s="9"/>
+      <c r="AJJ2" s="9"/>
+      <c r="AJK2" s="9"/>
+      <c r="AJL2" s="9"/>
+      <c r="AJM2" s="9"/>
+      <c r="AJN2" s="9"/>
+      <c r="AJO2" s="9"/>
+      <c r="AJP2" s="9"/>
+      <c r="AJQ2" s="9"/>
+      <c r="AJR2" s="9"/>
+      <c r="AJS2" s="9"/>
+      <c r="AJT2" s="9"/>
+      <c r="AJU2" s="9"/>
+      <c r="AJV2" s="9"/>
+      <c r="AJW2" s="9"/>
+      <c r="AJX2" s="9"/>
+      <c r="AJY2" s="9"/>
+      <c r="AJZ2" s="9"/>
+      <c r="AKA2" s="9"/>
+      <c r="AKB2" s="9"/>
+      <c r="AKC2" s="9"/>
+      <c r="AKD2" s="9"/>
+      <c r="AKE2" s="9"/>
+      <c r="AKF2" s="9"/>
+      <c r="AKG2" s="9"/>
+      <c r="AKH2" s="9"/>
+      <c r="AKI2" s="9"/>
+      <c r="AKJ2" s="9"/>
+      <c r="AKK2" s="9"/>
+      <c r="AKL2" s="9"/>
+      <c r="AKM2" s="9"/>
+      <c r="AKN2" s="9"/>
+      <c r="AKO2" s="9"/>
+      <c r="AKP2" s="9"/>
+      <c r="AKQ2" s="9"/>
+      <c r="AKR2" s="9"/>
+      <c r="AKS2" s="9"/>
+      <c r="AKT2" s="9"/>
+      <c r="AKU2" s="9"/>
+      <c r="AKV2" s="9"/>
+      <c r="AKW2" s="9"/>
+      <c r="AKX2" s="9"/>
+      <c r="AKY2" s="9"/>
+      <c r="AKZ2" s="9"/>
+      <c r="ALA2" s="9"/>
+      <c r="ALB2" s="9"/>
+      <c r="ALC2" s="9"/>
+      <c r="ALD2" s="9"/>
+      <c r="ALE2" s="9"/>
+      <c r="ALF2" s="9"/>
+      <c r="ALG2" s="9"/>
+      <c r="ALH2" s="9"/>
+      <c r="ALI2" s="9"/>
+      <c r="ALJ2" s="9"/>
+      <c r="ALK2" s="9"/>
+      <c r="ALL2" s="9"/>
+      <c r="ALM2" s="9"/>
+      <c r="ALN2" s="9"/>
+      <c r="ALO2" s="9"/>
+      <c r="ALP2" s="9"/>
+      <c r="ALQ2" s="9"/>
+      <c r="ALR2" s="9"/>
+      <c r="ALS2" s="9"/>
+      <c r="ALT2" s="9"/>
+      <c r="ALU2" s="9"/>
+      <c r="ALV2" s="9"/>
+      <c r="ALW2" s="9"/>
+      <c r="ALX2" s="9"/>
+      <c r="ALY2" s="9"/>
+      <c r="ALZ2" s="9"/>
+      <c r="AMA2" s="9"/>
+      <c r="AMB2" s="9"/>
+      <c r="AMC2" s="9"/>
+      <c r="AMD2" s="9"/>
+      <c r="AME2" s="9"/>
+      <c r="AMF2" s="9"/>
+      <c r="AMG2" s="9"/>
+      <c r="AMH2" s="9"/>
+      <c r="AMI2" s="9"/>
+      <c r="AMJ2" s="9"/>
+      <c r="AMK2" s="9"/>
+      <c r="AML2" s="9"/>
+    </row>
+    <row r="3" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1556</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
+      <c r="DM3" s="9"/>
+      <c r="DN3" s="9"/>
+      <c r="DO3" s="9"/>
+      <c r="DP3" s="9"/>
+      <c r="DQ3" s="9"/>
+      <c r="DR3" s="9"/>
+      <c r="DS3" s="9"/>
+      <c r="DT3" s="9"/>
+      <c r="DU3" s="9"/>
+      <c r="DV3" s="9"/>
+      <c r="DW3" s="9"/>
+      <c r="DX3" s="9"/>
+      <c r="DY3" s="9"/>
+      <c r="DZ3" s="9"/>
+      <c r="EA3" s="9"/>
+      <c r="EB3" s="9"/>
+      <c r="EC3" s="9"/>
+      <c r="ED3" s="9"/>
+      <c r="EE3" s="9"/>
+      <c r="EF3" s="9"/>
+      <c r="EG3" s="9"/>
+      <c r="EH3" s="9"/>
+      <c r="EI3" s="9"/>
+      <c r="EJ3" s="9"/>
+      <c r="EK3" s="9"/>
+      <c r="EL3" s="9"/>
+      <c r="EM3" s="9"/>
+      <c r="EN3" s="9"/>
+      <c r="EO3" s="9"/>
+      <c r="EP3" s="9"/>
+      <c r="EQ3" s="9"/>
+      <c r="ER3" s="9"/>
+      <c r="ES3" s="9"/>
+      <c r="ET3" s="9"/>
+      <c r="EU3" s="9"/>
+      <c r="EV3" s="9"/>
+      <c r="EW3" s="9"/>
+      <c r="EX3" s="9"/>
+      <c r="EY3" s="9"/>
+      <c r="EZ3" s="9"/>
+      <c r="FA3" s="9"/>
+      <c r="FB3" s="9"/>
+      <c r="FC3" s="9"/>
+      <c r="FD3" s="9"/>
+      <c r="FE3" s="9"/>
+      <c r="FF3" s="9"/>
+      <c r="FG3" s="9"/>
+      <c r="FH3" s="9"/>
+      <c r="FI3" s="9"/>
+      <c r="FJ3" s="9"/>
+      <c r="FK3" s="9"/>
+      <c r="FL3" s="9"/>
+      <c r="FM3" s="9"/>
+      <c r="FN3" s="9"/>
+      <c r="FO3" s="9"/>
+      <c r="FP3" s="9"/>
+      <c r="FQ3" s="9"/>
+      <c r="FR3" s="9"/>
+      <c r="FS3" s="9"/>
+      <c r="FT3" s="9"/>
+      <c r="FU3" s="9"/>
+      <c r="FV3" s="9"/>
+      <c r="FW3" s="9"/>
+      <c r="FX3" s="9"/>
+      <c r="FY3" s="9"/>
+      <c r="FZ3" s="9"/>
+      <c r="GA3" s="9"/>
+      <c r="GB3" s="9"/>
+      <c r="GC3" s="9"/>
+      <c r="GD3" s="9"/>
+      <c r="GE3" s="9"/>
+      <c r="GF3" s="9"/>
+      <c r="GG3" s="9"/>
+      <c r="GH3" s="9"/>
+      <c r="GI3" s="9"/>
+      <c r="GJ3" s="9"/>
+      <c r="GK3" s="9"/>
+      <c r="GL3" s="9"/>
+      <c r="GM3" s="9"/>
+      <c r="GN3" s="9"/>
+      <c r="GO3" s="9"/>
+      <c r="GP3" s="9"/>
+      <c r="GQ3" s="9"/>
+      <c r="GR3" s="9"/>
+      <c r="GS3" s="9"/>
+      <c r="GT3" s="9"/>
+      <c r="GU3" s="9"/>
+      <c r="GV3" s="9"/>
+      <c r="GW3" s="9"/>
+      <c r="GX3" s="9"/>
+      <c r="GY3" s="9"/>
+      <c r="GZ3" s="9"/>
+      <c r="HA3" s="9"/>
+      <c r="HB3" s="9"/>
+      <c r="HC3" s="9"/>
+      <c r="HD3" s="9"/>
+      <c r="HE3" s="9"/>
+      <c r="HF3" s="9"/>
+      <c r="HG3" s="9"/>
+      <c r="HH3" s="9"/>
+      <c r="HI3" s="9"/>
+      <c r="HJ3" s="9"/>
+      <c r="HK3" s="9"/>
+      <c r="HL3" s="9"/>
+      <c r="HM3" s="9"/>
+      <c r="HN3" s="9"/>
+      <c r="HO3" s="9"/>
+      <c r="HP3" s="9"/>
+      <c r="HQ3" s="9"/>
+      <c r="HR3" s="9"/>
+      <c r="HS3" s="9"/>
+      <c r="HT3" s="9"/>
+      <c r="HU3" s="9"/>
+      <c r="HV3" s="9"/>
+      <c r="HW3" s="9"/>
+      <c r="HX3" s="9"/>
+      <c r="HY3" s="9"/>
+      <c r="HZ3" s="9"/>
+      <c r="IA3" s="9"/>
+      <c r="IB3" s="9"/>
+      <c r="IC3" s="9"/>
+      <c r="ID3" s="9"/>
+      <c r="IE3" s="9"/>
+      <c r="IF3" s="9"/>
+      <c r="IG3" s="9"/>
+      <c r="IH3" s="9"/>
+      <c r="II3" s="9"/>
+      <c r="IJ3" s="9"/>
+      <c r="IK3" s="9"/>
+      <c r="IL3" s="9"/>
+      <c r="IM3" s="9"/>
+      <c r="IN3" s="9"/>
+      <c r="IO3" s="9"/>
+      <c r="IP3" s="9"/>
+      <c r="IQ3" s="9"/>
+      <c r="IR3" s="9"/>
+      <c r="IS3" s="9"/>
+      <c r="IT3" s="9"/>
+      <c r="IU3" s="9"/>
+      <c r="IV3" s="9"/>
+      <c r="IW3" s="9"/>
+      <c r="IX3" s="9"/>
+      <c r="IY3" s="9"/>
+      <c r="IZ3" s="9"/>
+      <c r="JA3" s="9"/>
+      <c r="JB3" s="9"/>
+      <c r="JC3" s="9"/>
+      <c r="JD3" s="9"/>
+      <c r="JE3" s="9"/>
+      <c r="JF3" s="9"/>
+      <c r="JG3" s="9"/>
+      <c r="JH3" s="9"/>
+      <c r="JI3" s="9"/>
+      <c r="JJ3" s="9"/>
+      <c r="JK3" s="9"/>
+      <c r="JL3" s="9"/>
+      <c r="JM3" s="9"/>
+      <c r="JN3" s="9"/>
+      <c r="JO3" s="9"/>
+      <c r="JP3" s="9"/>
+      <c r="JQ3" s="9"/>
+      <c r="JR3" s="9"/>
+      <c r="JS3" s="9"/>
+      <c r="JT3" s="9"/>
+      <c r="JU3" s="9"/>
+      <c r="JV3" s="9"/>
+      <c r="JW3" s="9"/>
+      <c r="JX3" s="9"/>
+      <c r="JY3" s="9"/>
+      <c r="JZ3" s="9"/>
+      <c r="KA3" s="9"/>
+      <c r="KB3" s="9"/>
+      <c r="KC3" s="9"/>
+      <c r="KD3" s="9"/>
+      <c r="KE3" s="9"/>
+      <c r="KF3" s="9"/>
+      <c r="KG3" s="9"/>
+      <c r="KH3" s="9"/>
+      <c r="KI3" s="9"/>
+      <c r="KJ3" s="9"/>
+      <c r="KK3" s="9"/>
+      <c r="KL3" s="9"/>
+      <c r="KM3" s="9"/>
+      <c r="KN3" s="9"/>
+      <c r="KO3" s="9"/>
+      <c r="KP3" s="9"/>
+      <c r="KQ3" s="9"/>
+      <c r="KR3" s="9"/>
+      <c r="KS3" s="9"/>
+      <c r="KT3" s="9"/>
+      <c r="KU3" s="9"/>
+      <c r="KV3" s="9"/>
+      <c r="KW3" s="9"/>
+      <c r="KX3" s="9"/>
+      <c r="KY3" s="9"/>
+      <c r="KZ3" s="9"/>
+      <c r="LA3" s="9"/>
+      <c r="LB3" s="9"/>
+      <c r="LC3" s="9"/>
+      <c r="LD3" s="9"/>
+      <c r="LE3" s="9"/>
+      <c r="LF3" s="9"/>
+      <c r="LG3" s="9"/>
+      <c r="LH3" s="9"/>
+      <c r="LI3" s="9"/>
+      <c r="LJ3" s="9"/>
+      <c r="LK3" s="9"/>
+      <c r="LL3" s="9"/>
+      <c r="LM3" s="9"/>
+      <c r="LN3" s="9"/>
+      <c r="LO3" s="9"/>
+      <c r="LP3" s="9"/>
+      <c r="LQ3" s="9"/>
+      <c r="LR3" s="9"/>
+      <c r="LS3" s="9"/>
+      <c r="LT3" s="9"/>
+      <c r="LU3" s="9"/>
+      <c r="LV3" s="9"/>
+      <c r="LW3" s="9"/>
+      <c r="LX3" s="9"/>
+      <c r="LY3" s="9"/>
+      <c r="LZ3" s="9"/>
+      <c r="MA3" s="9"/>
+      <c r="MB3" s="9"/>
+      <c r="MC3" s="9"/>
+      <c r="MD3" s="9"/>
+      <c r="ME3" s="9"/>
+      <c r="MF3" s="9"/>
+      <c r="MG3" s="9"/>
+      <c r="MH3" s="9"/>
+      <c r="MI3" s="9"/>
+      <c r="MJ3" s="9"/>
+      <c r="MK3" s="9"/>
+      <c r="ML3" s="9"/>
+      <c r="MM3" s="9"/>
+      <c r="MN3" s="9"/>
+      <c r="MO3" s="9"/>
+      <c r="MP3" s="9"/>
+      <c r="MQ3" s="9"/>
+      <c r="MR3" s="9"/>
+      <c r="MS3" s="9"/>
+      <c r="MT3" s="9"/>
+      <c r="MU3" s="9"/>
+      <c r="MV3" s="9"/>
+      <c r="MW3" s="9"/>
+      <c r="MX3" s="9"/>
+      <c r="MY3" s="9"/>
+      <c r="MZ3" s="9"/>
+      <c r="NA3" s="9"/>
+      <c r="NB3" s="9"/>
+      <c r="NC3" s="9"/>
+      <c r="ND3" s="9"/>
+      <c r="NE3" s="9"/>
+      <c r="NF3" s="9"/>
+      <c r="NG3" s="9"/>
+      <c r="NH3" s="9"/>
+      <c r="NI3" s="9"/>
+      <c r="NJ3" s="9"/>
+      <c r="NK3" s="9"/>
+      <c r="NL3" s="9"/>
+      <c r="NM3" s="9"/>
+      <c r="NN3" s="9"/>
+      <c r="NO3" s="9"/>
+      <c r="NP3" s="9"/>
+      <c r="NQ3" s="9"/>
+      <c r="NR3" s="9"/>
+      <c r="NS3" s="9"/>
+      <c r="NT3" s="9"/>
+      <c r="NU3" s="9"/>
+      <c r="NV3" s="9"/>
+      <c r="NW3" s="9"/>
+      <c r="NX3" s="9"/>
+      <c r="NY3" s="9"/>
+      <c r="NZ3" s="9"/>
+      <c r="OA3" s="9"/>
+      <c r="OB3" s="9"/>
+      <c r="OC3" s="9"/>
+      <c r="OD3" s="9"/>
+      <c r="OE3" s="9"/>
+      <c r="OF3" s="9"/>
+      <c r="OG3" s="9"/>
+      <c r="OH3" s="9"/>
+      <c r="OI3" s="9"/>
+      <c r="OJ3" s="9"/>
+      <c r="OK3" s="9"/>
+      <c r="OL3" s="9"/>
+      <c r="OM3" s="9"/>
+      <c r="ON3" s="9"/>
+      <c r="OO3" s="9"/>
+      <c r="OP3" s="9"/>
+      <c r="OQ3" s="9"/>
+      <c r="OR3" s="9"/>
+      <c r="OS3" s="9"/>
+      <c r="OT3" s="9"/>
+      <c r="OU3" s="9"/>
+      <c r="OV3" s="9"/>
+      <c r="OW3" s="9"/>
+      <c r="OX3" s="9"/>
+      <c r="OY3" s="9"/>
+      <c r="OZ3" s="9"/>
+      <c r="PA3" s="9"/>
+      <c r="PB3" s="9"/>
+      <c r="PC3" s="9"/>
+      <c r="PD3" s="9"/>
+      <c r="PE3" s="9"/>
+      <c r="PF3" s="9"/>
+      <c r="PG3" s="9"/>
+      <c r="PH3" s="9"/>
+      <c r="PI3" s="9"/>
+      <c r="PJ3" s="9"/>
+      <c r="PK3" s="9"/>
+      <c r="PL3" s="9"/>
+      <c r="PM3" s="9"/>
+      <c r="PN3" s="9"/>
+      <c r="PO3" s="9"/>
+      <c r="PP3" s="9"/>
+      <c r="PQ3" s="9"/>
+      <c r="PR3" s="9"/>
+      <c r="PS3" s="9"/>
+      <c r="PT3" s="9"/>
+      <c r="PU3" s="9"/>
+      <c r="PV3" s="9"/>
+      <c r="PW3" s="9"/>
+      <c r="PX3" s="9"/>
+      <c r="PY3" s="9"/>
+      <c r="PZ3" s="9"/>
+      <c r="QA3" s="9"/>
+      <c r="QB3" s="9"/>
+      <c r="QC3" s="9"/>
+      <c r="QD3" s="9"/>
+      <c r="QE3" s="9"/>
+      <c r="QF3" s="9"/>
+      <c r="QG3" s="9"/>
+      <c r="QH3" s="9"/>
+      <c r="QI3" s="9"/>
+      <c r="QJ3" s="9"/>
+      <c r="QK3" s="9"/>
+      <c r="QL3" s="9"/>
+      <c r="QM3" s="9"/>
+      <c r="QN3" s="9"/>
+      <c r="QO3" s="9"/>
+      <c r="QP3" s="9"/>
+      <c r="QQ3" s="9"/>
+      <c r="QR3" s="9"/>
+      <c r="QS3" s="9"/>
+      <c r="QT3" s="9"/>
+      <c r="QU3" s="9"/>
+      <c r="QV3" s="9"/>
+      <c r="QW3" s="9"/>
+      <c r="QX3" s="9"/>
+      <c r="QY3" s="9"/>
+      <c r="QZ3" s="9"/>
+      <c r="RA3" s="9"/>
+      <c r="RB3" s="9"/>
+      <c r="RC3" s="9"/>
+      <c r="RD3" s="9"/>
+      <c r="RE3" s="9"/>
+      <c r="RF3" s="9"/>
+      <c r="RG3" s="9"/>
+      <c r="RH3" s="9"/>
+      <c r="RI3" s="9"/>
+      <c r="RJ3" s="9"/>
+      <c r="RK3" s="9"/>
+      <c r="RL3" s="9"/>
+      <c r="RM3" s="9"/>
+      <c r="RN3" s="9"/>
+      <c r="RO3" s="9"/>
+      <c r="RP3" s="9"/>
+      <c r="RQ3" s="9"/>
+      <c r="RR3" s="9"/>
+      <c r="RS3" s="9"/>
+      <c r="RT3" s="9"/>
+      <c r="RU3" s="9"/>
+      <c r="RV3" s="9"/>
+      <c r="RW3" s="9"/>
+      <c r="RX3" s="9"/>
+      <c r="RY3" s="9"/>
+      <c r="RZ3" s="9"/>
+      <c r="SA3" s="9"/>
+      <c r="SB3" s="9"/>
+      <c r="SC3" s="9"/>
+      <c r="SD3" s="9"/>
+      <c r="SE3" s="9"/>
+      <c r="SF3" s="9"/>
+      <c r="SG3" s="9"/>
+      <c r="SH3" s="9"/>
+      <c r="SI3" s="9"/>
+      <c r="SJ3" s="9"/>
+      <c r="SK3" s="9"/>
+      <c r="SL3" s="9"/>
+      <c r="SM3" s="9"/>
+      <c r="SN3" s="9"/>
+      <c r="SO3" s="9"/>
+      <c r="SP3" s="9"/>
+      <c r="SQ3" s="9"/>
+      <c r="SR3" s="9"/>
+      <c r="SS3" s="9"/>
+      <c r="ST3" s="9"/>
+      <c r="SU3" s="9"/>
+      <c r="SV3" s="9"/>
+      <c r="SW3" s="9"/>
+      <c r="SX3" s="9"/>
+      <c r="SY3" s="9"/>
+      <c r="SZ3" s="9"/>
+      <c r="TA3" s="9"/>
+      <c r="TB3" s="9"/>
+      <c r="TC3" s="9"/>
+      <c r="TD3" s="9"/>
+      <c r="TE3" s="9"/>
+      <c r="TF3" s="9"/>
+      <c r="TG3" s="9"/>
+      <c r="TH3" s="9"/>
+      <c r="TI3" s="9"/>
+      <c r="TJ3" s="9"/>
+      <c r="TK3" s="9"/>
+      <c r="TL3" s="9"/>
+      <c r="TM3" s="9"/>
+      <c r="TN3" s="9"/>
+      <c r="TO3" s="9"/>
+      <c r="TP3" s="9"/>
+      <c r="TQ3" s="9"/>
+      <c r="TR3" s="9"/>
+      <c r="TS3" s="9"/>
+      <c r="TT3" s="9"/>
+      <c r="TU3" s="9"/>
+      <c r="TV3" s="9"/>
+      <c r="TW3" s="9"/>
+      <c r="TX3" s="9"/>
+      <c r="TY3" s="9"/>
+      <c r="TZ3" s="9"/>
+      <c r="UA3" s="9"/>
+      <c r="UB3" s="9"/>
+      <c r="UC3" s="9"/>
+      <c r="UD3" s="9"/>
+      <c r="UE3" s="9"/>
+      <c r="UF3" s="9"/>
+      <c r="UG3" s="9"/>
+      <c r="UH3" s="9"/>
+      <c r="UI3" s="9"/>
+      <c r="UJ3" s="9"/>
+      <c r="UK3" s="9"/>
+      <c r="UL3" s="9"/>
+      <c r="UM3" s="9"/>
+      <c r="UN3" s="9"/>
+      <c r="UO3" s="9"/>
+      <c r="UP3" s="9"/>
+      <c r="UQ3" s="9"/>
+      <c r="UR3" s="9"/>
+      <c r="US3" s="9"/>
+      <c r="UT3" s="9"/>
+      <c r="UU3" s="9"/>
+      <c r="UV3" s="9"/>
+      <c r="UW3" s="9"/>
+      <c r="UX3" s="9"/>
+      <c r="UY3" s="9"/>
+      <c r="UZ3" s="9"/>
+      <c r="VA3" s="9"/>
+      <c r="VB3" s="9"/>
+      <c r="VC3" s="9"/>
+      <c r="VD3" s="9"/>
+      <c r="VE3" s="9"/>
+      <c r="VF3" s="9"/>
+      <c r="VG3" s="9"/>
+      <c r="VH3" s="9"/>
+      <c r="VI3" s="9"/>
+      <c r="VJ3" s="9"/>
+      <c r="VK3" s="9"/>
+      <c r="VL3" s="9"/>
+      <c r="VM3" s="9"/>
+      <c r="VN3" s="9"/>
+      <c r="VO3" s="9"/>
+      <c r="VP3" s="9"/>
+      <c r="VQ3" s="9"/>
+      <c r="VR3" s="9"/>
+      <c r="VS3" s="9"/>
+      <c r="VT3" s="9"/>
+      <c r="VU3" s="9"/>
+      <c r="VV3" s="9"/>
+      <c r="VW3" s="9"/>
+      <c r="VX3" s="9"/>
+      <c r="VY3" s="9"/>
+      <c r="VZ3" s="9"/>
+      <c r="WA3" s="9"/>
+      <c r="WB3" s="9"/>
+      <c r="WC3" s="9"/>
+      <c r="WD3" s="9"/>
+      <c r="WE3" s="9"/>
+      <c r="WF3" s="9"/>
+      <c r="WG3" s="9"/>
+      <c r="WH3" s="9"/>
+      <c r="WI3" s="9"/>
+      <c r="WJ3" s="9"/>
+      <c r="WK3" s="9"/>
+      <c r="WL3" s="9"/>
+      <c r="WM3" s="9"/>
+      <c r="WN3" s="9"/>
+      <c r="WO3" s="9"/>
+      <c r="WP3" s="9"/>
+      <c r="WQ3" s="9"/>
+      <c r="WR3" s="9"/>
+      <c r="WS3" s="9"/>
+      <c r="WT3" s="9"/>
+      <c r="WU3" s="9"/>
+      <c r="WV3" s="9"/>
+      <c r="WW3" s="9"/>
+      <c r="WX3" s="9"/>
+      <c r="WY3" s="9"/>
+      <c r="WZ3" s="9"/>
+      <c r="XA3" s="9"/>
+      <c r="XB3" s="9"/>
+      <c r="XC3" s="9"/>
+      <c r="XD3" s="9"/>
+      <c r="XE3" s="9"/>
+      <c r="XF3" s="9"/>
+      <c r="XG3" s="9"/>
+      <c r="XH3" s="9"/>
+      <c r="XI3" s="9"/>
+      <c r="XJ3" s="9"/>
+      <c r="XK3" s="9"/>
+      <c r="XL3" s="9"/>
+      <c r="XM3" s="9"/>
+      <c r="XN3" s="9"/>
+      <c r="XO3" s="9"/>
+      <c r="XP3" s="9"/>
+      <c r="XQ3" s="9"/>
+      <c r="XR3" s="9"/>
+      <c r="XS3" s="9"/>
+      <c r="XT3" s="9"/>
+      <c r="XU3" s="9"/>
+      <c r="XV3" s="9"/>
+      <c r="XW3" s="9"/>
+      <c r="XX3" s="9"/>
+      <c r="XY3" s="9"/>
+      <c r="XZ3" s="9"/>
+      <c r="YA3" s="9"/>
+      <c r="YB3" s="9"/>
+      <c r="YC3" s="9"/>
+      <c r="YD3" s="9"/>
+      <c r="YE3" s="9"/>
+      <c r="YF3" s="9"/>
+      <c r="YG3" s="9"/>
+      <c r="YH3" s="9"/>
+      <c r="YI3" s="9"/>
+      <c r="YJ3" s="9"/>
+      <c r="YK3" s="9"/>
+      <c r="YL3" s="9"/>
+      <c r="YM3" s="9"/>
+      <c r="YN3" s="9"/>
+      <c r="YO3" s="9"/>
+      <c r="YP3" s="9"/>
+      <c r="YQ3" s="9"/>
+      <c r="YR3" s="9"/>
+      <c r="YS3" s="9"/>
+      <c r="YT3" s="9"/>
+      <c r="YU3" s="9"/>
+      <c r="YV3" s="9"/>
+      <c r="YW3" s="9"/>
+      <c r="YX3" s="9"/>
+      <c r="YY3" s="9"/>
+      <c r="YZ3" s="9"/>
+      <c r="ZA3" s="9"/>
+      <c r="ZB3" s="9"/>
+      <c r="ZC3" s="9"/>
+      <c r="ZD3" s="9"/>
+      <c r="ZE3" s="9"/>
+      <c r="ZF3" s="9"/>
+      <c r="ZG3" s="9"/>
+      <c r="ZH3" s="9"/>
+      <c r="ZI3" s="9"/>
+      <c r="ZJ3" s="9"/>
+      <c r="ZK3" s="9"/>
+      <c r="ZL3" s="9"/>
+      <c r="ZM3" s="9"/>
+      <c r="ZN3" s="9"/>
+      <c r="ZO3" s="9"/>
+      <c r="ZP3" s="9"/>
+      <c r="ZQ3" s="9"/>
+      <c r="ZR3" s="9"/>
+      <c r="ZS3" s="9"/>
+      <c r="ZT3" s="9"/>
+      <c r="ZU3" s="9"/>
+      <c r="ZV3" s="9"/>
+      <c r="ZW3" s="9"/>
+      <c r="ZX3" s="9"/>
+      <c r="ZY3" s="9"/>
+      <c r="ZZ3" s="9"/>
+      <c r="AAA3" s="9"/>
+      <c r="AAB3" s="9"/>
+      <c r="AAC3" s="9"/>
+      <c r="AAD3" s="9"/>
+      <c r="AAE3" s="9"/>
+      <c r="AAF3" s="9"/>
+      <c r="AAG3" s="9"/>
+      <c r="AAH3" s="9"/>
+      <c r="AAI3" s="9"/>
+      <c r="AAJ3" s="9"/>
+      <c r="AAK3" s="9"/>
+      <c r="AAL3" s="9"/>
+      <c r="AAM3" s="9"/>
+      <c r="AAN3" s="9"/>
+      <c r="AAO3" s="9"/>
+      <c r="AAP3" s="9"/>
+      <c r="AAQ3" s="9"/>
+      <c r="AAR3" s="9"/>
+      <c r="AAS3" s="9"/>
+      <c r="AAT3" s="9"/>
+      <c r="AAU3" s="9"/>
+      <c r="AAV3" s="9"/>
+      <c r="AAW3" s="9"/>
+      <c r="AAX3" s="9"/>
+      <c r="AAY3" s="9"/>
+      <c r="AAZ3" s="9"/>
+      <c r="ABA3" s="9"/>
+      <c r="ABB3" s="9"/>
+      <c r="ABC3" s="9"/>
+      <c r="ABD3" s="9"/>
+      <c r="ABE3" s="9"/>
+      <c r="ABF3" s="9"/>
+      <c r="ABG3" s="9"/>
+      <c r="ABH3" s="9"/>
+      <c r="ABI3" s="9"/>
+      <c r="ABJ3" s="9"/>
+      <c r="ABK3" s="9"/>
+      <c r="ABL3" s="9"/>
+      <c r="ABM3" s="9"/>
+      <c r="ABN3" s="9"/>
+      <c r="ABO3" s="9"/>
+      <c r="ABP3" s="9"/>
+      <c r="ABQ3" s="9"/>
+      <c r="ABR3" s="9"/>
+      <c r="ABS3" s="9"/>
+      <c r="ABT3" s="9"/>
+      <c r="ABU3" s="9"/>
+      <c r="ABV3" s="9"/>
+      <c r="ABW3" s="9"/>
+      <c r="ABX3" s="9"/>
+      <c r="ABY3" s="9"/>
+      <c r="ABZ3" s="9"/>
+      <c r="ACA3" s="9"/>
+      <c r="ACB3" s="9"/>
+      <c r="ACC3" s="9"/>
+      <c r="ACD3" s="9"/>
+      <c r="ACE3" s="9"/>
+      <c r="ACF3" s="9"/>
+      <c r="ACG3" s="9"/>
+      <c r="ACH3" s="9"/>
+      <c r="ACI3" s="9"/>
+      <c r="ACJ3" s="9"/>
+      <c r="ACK3" s="9"/>
+      <c r="ACL3" s="9"/>
+      <c r="ACM3" s="9"/>
+      <c r="ACN3" s="9"/>
+      <c r="ACO3" s="9"/>
+      <c r="ACP3" s="9"/>
+      <c r="ACQ3" s="9"/>
+      <c r="ACR3" s="9"/>
+      <c r="ACS3" s="9"/>
+      <c r="ACT3" s="9"/>
+      <c r="ACU3" s="9"/>
+      <c r="ACV3" s="9"/>
+      <c r="ACW3" s="9"/>
+      <c r="ACX3" s="9"/>
+      <c r="ACY3" s="9"/>
+      <c r="ACZ3" s="9"/>
+      <c r="ADA3" s="9"/>
+      <c r="ADB3" s="9"/>
+      <c r="ADC3" s="9"/>
+      <c r="ADD3" s="9"/>
+      <c r="ADE3" s="9"/>
+      <c r="ADF3" s="9"/>
+      <c r="ADG3" s="9"/>
+      <c r="ADH3" s="9"/>
+      <c r="ADI3" s="9"/>
+      <c r="ADJ3" s="9"/>
+      <c r="ADK3" s="9"/>
+      <c r="ADL3" s="9"/>
+      <c r="ADM3" s="9"/>
+      <c r="ADN3" s="9"/>
+      <c r="ADO3" s="9"/>
+      <c r="ADP3" s="9"/>
+      <c r="ADQ3" s="9"/>
+      <c r="ADR3" s="9"/>
+      <c r="ADS3" s="9"/>
+      <c r="ADT3" s="9"/>
+      <c r="ADU3" s="9"/>
+      <c r="ADV3" s="9"/>
+      <c r="ADW3" s="9"/>
+      <c r="ADX3" s="9"/>
+      <c r="ADY3" s="9"/>
+      <c r="ADZ3" s="9"/>
+      <c r="AEA3" s="9"/>
+      <c r="AEB3" s="9"/>
+      <c r="AEC3" s="9"/>
+      <c r="AED3" s="9"/>
+      <c r="AEE3" s="9"/>
+      <c r="AEF3" s="9"/>
+      <c r="AEG3" s="9"/>
+      <c r="AEH3" s="9"/>
+      <c r="AEI3" s="9"/>
+      <c r="AEJ3" s="9"/>
+      <c r="AEK3" s="9"/>
+      <c r="AEL3" s="9"/>
+      <c r="AEM3" s="9"/>
+      <c r="AEN3" s="9"/>
+      <c r="AEO3" s="9"/>
+      <c r="AEP3" s="9"/>
+      <c r="AEQ3" s="9"/>
+      <c r="AER3" s="9"/>
+      <c r="AES3" s="9"/>
+      <c r="AET3" s="9"/>
+      <c r="AEU3" s="9"/>
+      <c r="AEV3" s="9"/>
+      <c r="AEW3" s="9"/>
+      <c r="AEX3" s="9"/>
+      <c r="AEY3" s="9"/>
+      <c r="AEZ3" s="9"/>
+      <c r="AFA3" s="9"/>
+      <c r="AFB3" s="9"/>
+      <c r="AFC3" s="9"/>
+      <c r="AFD3" s="9"/>
+      <c r="AFE3" s="9"/>
+      <c r="AFF3" s="9"/>
+      <c r="AFG3" s="9"/>
+      <c r="AFH3" s="9"/>
+      <c r="AFI3" s="9"/>
+      <c r="AFJ3" s="9"/>
+      <c r="AFK3" s="9"/>
+      <c r="AFL3" s="9"/>
+      <c r="AFM3" s="9"/>
+      <c r="AFN3" s="9"/>
+      <c r="AFO3" s="9"/>
+      <c r="AFP3" s="9"/>
+      <c r="AFQ3" s="9"/>
+      <c r="AFR3" s="9"/>
+      <c r="AFS3" s="9"/>
+      <c r="AFT3" s="9"/>
+      <c r="AFU3" s="9"/>
+      <c r="AFV3" s="9"/>
+      <c r="AFW3" s="9"/>
+      <c r="AFX3" s="9"/>
+      <c r="AFY3" s="9"/>
+      <c r="AFZ3" s="9"/>
+      <c r="AGA3" s="9"/>
+      <c r="AGB3" s="9"/>
+      <c r="AGC3" s="9"/>
+      <c r="AGD3" s="9"/>
+      <c r="AGE3" s="9"/>
+      <c r="AGF3" s="9"/>
+      <c r="AGG3" s="9"/>
+      <c r="AGH3" s="9"/>
+      <c r="AGI3" s="9"/>
+      <c r="AGJ3" s="9"/>
+      <c r="AGK3" s="9"/>
+      <c r="AGL3" s="9"/>
+      <c r="AGM3" s="9"/>
+      <c r="AGN3" s="9"/>
+      <c r="AGO3" s="9"/>
+      <c r="AGP3" s="9"/>
+      <c r="AGQ3" s="9"/>
+      <c r="AGR3" s="9"/>
+      <c r="AGS3" s="9"/>
+      <c r="AGT3" s="9"/>
+      <c r="AGU3" s="9"/>
+      <c r="AGV3" s="9"/>
+      <c r="AGW3" s="9"/>
+      <c r="AGX3" s="9"/>
+      <c r="AGY3" s="9"/>
+      <c r="AGZ3" s="9"/>
+      <c r="AHA3" s="9"/>
+      <c r="AHB3" s="9"/>
+      <c r="AHC3" s="9"/>
+      <c r="AHD3" s="9"/>
+      <c r="AHE3" s="9"/>
+      <c r="AHF3" s="9"/>
+      <c r="AHG3" s="9"/>
+      <c r="AHH3" s="9"/>
+      <c r="AHI3" s="9"/>
+      <c r="AHJ3" s="9"/>
+      <c r="AHK3" s="9"/>
+      <c r="AHL3" s="9"/>
+      <c r="AHM3" s="9"/>
+      <c r="AHN3" s="9"/>
+      <c r="AHO3" s="9"/>
+      <c r="AHP3" s="9"/>
+      <c r="AHQ3" s="9"/>
+      <c r="AHR3" s="9"/>
+      <c r="AHS3" s="9"/>
+      <c r="AHT3" s="9"/>
+      <c r="AHU3" s="9"/>
+      <c r="AHV3" s="9"/>
+      <c r="AHW3" s="9"/>
+      <c r="AHX3" s="9"/>
+      <c r="AHY3" s="9"/>
+      <c r="AHZ3" s="9"/>
+      <c r="AIA3" s="9"/>
+      <c r="AIB3" s="9"/>
+      <c r="AIC3" s="9"/>
+      <c r="AID3" s="9"/>
+      <c r="AIE3" s="9"/>
+      <c r="AIF3" s="9"/>
+      <c r="AIG3" s="9"/>
+      <c r="AIH3" s="9"/>
+      <c r="AII3" s="9"/>
+      <c r="AIJ3" s="9"/>
+      <c r="AIK3" s="9"/>
+      <c r="AIL3" s="9"/>
+      <c r="AIM3" s="9"/>
+      <c r="AIN3" s="9"/>
+      <c r="AIO3" s="9"/>
+      <c r="AIP3" s="9"/>
+      <c r="AIQ3" s="9"/>
+      <c r="AIR3" s="9"/>
+      <c r="AIS3" s="9"/>
+      <c r="AIT3" s="9"/>
+      <c r="AIU3" s="9"/>
+      <c r="AIV3" s="9"/>
+      <c r="AIW3" s="9"/>
+      <c r="AIX3" s="9"/>
+      <c r="AIY3" s="9"/>
+      <c r="AIZ3" s="9"/>
+      <c r="AJA3" s="9"/>
+      <c r="AJB3" s="9"/>
+      <c r="AJC3" s="9"/>
+      <c r="AJD3" s="9"/>
+      <c r="AJE3" s="9"/>
+      <c r="AJF3" s="9"/>
+      <c r="AJG3" s="9"/>
+      <c r="AJH3" s="9"/>
+      <c r="AJI3" s="9"/>
+      <c r="AJJ3" s="9"/>
+      <c r="AJK3" s="9"/>
+      <c r="AJL3" s="9"/>
+      <c r="AJM3" s="9"/>
+      <c r="AJN3" s="9"/>
+      <c r="AJO3" s="9"/>
+      <c r="AJP3" s="9"/>
+      <c r="AJQ3" s="9"/>
+      <c r="AJR3" s="9"/>
+      <c r="AJS3" s="9"/>
+      <c r="AJT3" s="9"/>
+      <c r="AJU3" s="9"/>
+      <c r="AJV3" s="9"/>
+      <c r="AJW3" s="9"/>
+      <c r="AJX3" s="9"/>
+      <c r="AJY3" s="9"/>
+      <c r="AJZ3" s="9"/>
+      <c r="AKA3" s="9"/>
+      <c r="AKB3" s="9"/>
+      <c r="AKC3" s="9"/>
+      <c r="AKD3" s="9"/>
+      <c r="AKE3" s="9"/>
+      <c r="AKF3" s="9"/>
+      <c r="AKG3" s="9"/>
+      <c r="AKH3" s="9"/>
+      <c r="AKI3" s="9"/>
+      <c r="AKJ3" s="9"/>
+      <c r="AKK3" s="9"/>
+      <c r="AKL3" s="9"/>
+      <c r="AKM3" s="9"/>
+      <c r="AKN3" s="9"/>
+      <c r="AKO3" s="9"/>
+      <c r="AKP3" s="9"/>
+      <c r="AKQ3" s="9"/>
+      <c r="AKR3" s="9"/>
+      <c r="AKS3" s="9"/>
+      <c r="AKT3" s="9"/>
+      <c r="AKU3" s="9"/>
+      <c r="AKV3" s="9"/>
+      <c r="AKW3" s="9"/>
+      <c r="AKX3" s="9"/>
+      <c r="AKY3" s="9"/>
+      <c r="AKZ3" s="9"/>
+      <c r="ALA3" s="9"/>
+      <c r="ALB3" s="9"/>
+      <c r="ALC3" s="9"/>
+      <c r="ALD3" s="9"/>
+      <c r="ALE3" s="9"/>
+      <c r="ALF3" s="9"/>
+      <c r="ALG3" s="9"/>
+      <c r="ALH3" s="9"/>
+      <c r="ALI3" s="9"/>
+      <c r="ALJ3" s="9"/>
+      <c r="ALK3" s="9"/>
+      <c r="ALL3" s="9"/>
+      <c r="ALM3" s="9"/>
+      <c r="ALN3" s="9"/>
+      <c r="ALO3" s="9"/>
+      <c r="ALP3" s="9"/>
+      <c r="ALQ3" s="9"/>
+      <c r="ALR3" s="9"/>
+      <c r="ALS3" s="9"/>
+      <c r="ALT3" s="9"/>
+      <c r="ALU3" s="9"/>
+      <c r="ALV3" s="9"/>
+      <c r="ALW3" s="9"/>
+      <c r="ALX3" s="9"/>
+      <c r="ALY3" s="9"/>
+      <c r="ALZ3" s="9"/>
+      <c r="AMA3" s="9"/>
+      <c r="AMB3" s="9"/>
+      <c r="AMC3" s="9"/>
+      <c r="AMD3" s="9"/>
+      <c r="AME3" s="9"/>
+      <c r="AMF3" s="9"/>
+      <c r="AMG3" s="9"/>
+      <c r="AMH3" s="9"/>
+      <c r="AMI3" s="9"/>
+      <c r="AMJ3" s="9"/>
+      <c r="AMK3" s="9"/>
+      <c r="AML3" s="9"/>
+    </row>
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>